--- a/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,75</t>
+          <t>-2,32; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,76</t>
+          <t>-2,1; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,52</t>
+          <t>-2,01; 2,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,1</t>
+          <t>-2,17; 1,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 39,0</t>
+          <t>-31,91; 35,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 41,2</t>
+          <t>-31,77; 40,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 63,46</t>
+          <t>-33,57; 61,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,88; 60,3</t>
+          <t>-58,15; 73,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,51</t>
+          <t>0,25; 3,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,49</t>
+          <t>0,06; 3,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,18</t>
+          <t>-1,64; 1,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,57</t>
+          <t>-0,65; 1,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 89,52</t>
+          <t>3,62; 93,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 73,72</t>
+          <t>0,77; 68,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 32,04</t>
+          <t>-33,21; 29,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 83,68</t>
+          <t>-23,23; 81,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,99</t>
+          <t>-1,24; 4,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,1</t>
+          <t>2,14; 7,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,26</t>
+          <t>-0,73; 4,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,4</t>
+          <t>-1,7; 1,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 148,59</t>
+          <t>-26,54; 157,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,31; 1755,57</t>
+          <t>64,21; 1283,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 181,21</t>
+          <t>-17,38; 175,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 135,08</t>
+          <t>-61,56; 118,43</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,26</t>
+          <t>0,08; 2,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,67</t>
+          <t>0,38; 2,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,27</t>
+          <t>-0,72; 1,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,98</t>
+          <t>-0,65; 0,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,77</t>
+          <t>1,51; 58,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 63,92</t>
+          <t>6,57; 60,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 33,23</t>
+          <t>-15,16; 35,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 50,19</t>
+          <t>-23,35; 52,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,71</t>
+          <t>-2,15; 1,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,7</t>
+          <t>-2,14; 1,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,4</t>
+          <t>-2,08; 2,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 35,79</t>
+          <t>-31,51; 33,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 40,89</t>
+          <t>-32,86; 39,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 61,46</t>
+          <t>-33,21; 67,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,58</t>
+          <t>0,34; 3,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,3</t>
+          <t>0,04; 3,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,01</t>
+          <t>-1,46; 1,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 93,75</t>
+          <t>4,88; 89,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 68,41</t>
+          <t>0,7; 73,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 29,76</t>
+          <t>-30,12; 30,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,09</t>
+          <t>-1,51; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,06</t>
+          <t>2,09; 7,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,16</t>
+          <t>-0,79; 4,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 157,96</t>
+          <t>-33,13; 158,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,21; 1283,41</t>
+          <t>98,25; 1627,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 175,19</t>
+          <t>-21,14; 156,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,38</t>
+          <t>0,1; 2,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,55</t>
+          <t>0,33; 2,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,36</t>
+          <t>-0,84; 1,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 58,0</t>
+          <t>1,38; 54,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 60,81</t>
+          <t>5,8; 62,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 35,97</t>
+          <t>-17,72; 29,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,63</t>
+          <t>-2,26; 1,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,68</t>
+          <t>-1,97; 1,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,51</t>
+          <t>-1,99; 2,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,12</t>
+          <t>-2,09; 1,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 33,14</t>
+          <t>-30,72; 39,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 39,79</t>
+          <t>-31,02; 41,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 67,23</t>
+          <t>-32,41; 63,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 73,66</t>
+          <t>-56,88; 60,3</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,44</t>
+          <t>0,34; 3,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,31</t>
+          <t>0,25; 3,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,1</t>
+          <t>-1,47; 1,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,45</t>
+          <t>-0,61; 1,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 89,65</t>
+          <t>5,32; 89,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 73,3</t>
+          <t>3,69; 73,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 30,36</t>
+          <t>-30,14; 32,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 81,71</t>
+          <t>-20,49; 83,68</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,92</t>
+          <t>-1,36; 3,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,04</t>
+          <t>2,1; 7,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 4,05</t>
+          <t>-0,84; 4,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,28</t>
+          <t>-1,55; 1,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 158,92</t>
+          <t>-29,32; 148,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>98,25; 1627,3</t>
+          <t>91,31; 1755,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 156,43</t>
+          <t>-20,12; 181,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,56; 118,43</t>
+          <t>-61,45; 135,08</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,31</t>
+          <t>0,06; 2,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,64</t>
+          <t>0,38; 2,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,13</t>
+          <t>-0,87; 1,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,97</t>
+          <t>-0,54; 0,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 54,33</t>
+          <t>1,01; 52,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 62,28</t>
+          <t>8,52; 63,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 29,87</t>
+          <t>-17,79; 33,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 52,35</t>
+          <t>-20,28; 50,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-10,91%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,1</t>
+          <t>-2,08; 1,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,88; 60,3</t>
+          <t>-55,98; 64,9</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>23,18%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,57</t>
+          <t>-0,81; 1,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 83,68</t>
+          <t>-27,52; 101,86</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>-2,04%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,4</t>
+          <t>-1,54; 1,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 135,08</t>
+          <t>-61,19; 152,3</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>12,48%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,98</t>
+          <t>-0,57; 1,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 50,19</t>
+          <t>-20,95; 63,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,75</t>
+          <t>-2,22; 1,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,76</t>
+          <t>-2,29; 1,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,52</t>
+          <t>-1,92; 2,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,17</t>
+          <t>-2,01; 1,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 39,0</t>
+          <t>-31,0; 40,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 41,2</t>
+          <t>-33,92; 37,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 63,46</t>
+          <t>-32,3; 61,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,98; 64,9</t>
+          <t>-53,56; 76,95</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,51</t>
+          <t>0,34; 3,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,49</t>
+          <t>0,17; 3,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,18</t>
+          <t>-1,51; 1,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,69</t>
+          <t>-0,84; 1,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 89,52</t>
+          <t>6,01; 95,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 73,72</t>
+          <t>2,77; 70,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 32,04</t>
+          <t>-30,33; 31,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 101,86</t>
+          <t>-29,49; 108,86</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,99</t>
+          <t>-1,27; 4,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,1</t>
+          <t>2,05; 6,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,26</t>
+          <t>-0,98; 4,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,55</t>
+          <t>-1,74; 1,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 148,59</t>
+          <t>-26,26; 180,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,31; 1755,57</t>
+          <t>84,47; 1321,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 181,21</t>
+          <t>-21,9; 166,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,19; 152,3</t>
+          <t>-63,23; 111,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,26</t>
+          <t>-0,11; 2,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,67</t>
+          <t>0,34; 2,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,27</t>
+          <t>-0,85; 1,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,13</t>
+          <t>-0,64; 1,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,77</t>
+          <t>-1,82; 52,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 63,92</t>
+          <t>5,57; 59,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 33,23</t>
+          <t>-17,67; 32,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 63,78</t>
+          <t>-23,31; 64,46</t>
         </is>
       </c>
     </row>
